--- a/data/trans_bre/P1424_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1424_2016_2023-Clase-trans_bre.xlsx
@@ -592,7 +592,7 @@
         <v>-0.1453171583344189</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.194366935753037</v>
+        <v>3.194366935753036</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.0821777664278803</v>
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.271209537681023</v>
+        <v>-2.035829555819436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5393458337718658</v>
+        <v>0.6914753376364493</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.802714063702311</v>
+        <v>-0.7635134185342226</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.0854599326054984</v>
+        <v>0.1282695859063894</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.740096870001982</v>
+        <v>1.535841383634425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.581475177401318</v>
+        <v>5.95505444138601</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.329077160419141</v>
+        <v>1.926426742427932</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.744011319964801</v>
+        <v>3.078924762453377</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>1.645175204536975</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.608971296359163</v>
+        <v>3.608971296359166</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.9339071563095258</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.7808567064898327</v>
+        <v>0.7808567064898331</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6354242297798086</v>
+        <v>-0.5060074582137132</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4368463412594868</v>
+        <v>0.5685265056913632</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3656650399255327</v>
+        <v>-0.3788529559116385</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04389748216042305</v>
+        <v>0.01534866378678124</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.50885053490553</v>
+        <v>4.305462222556823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.72345215341974</v>
+        <v>6.760090185629155</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.823708776496616</v>
+        <v>4.586971061141524</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.052931507780802</v>
+        <v>1.920970529516209</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2048038594731172</v>
+        <v>0.3612638168931094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.527173612549926</v>
+        <v>1.31548705880998</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1325279779312005</v>
+        <v>0.01876138640230913</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1851940825491088</v>
+        <v>0.1788037290393777</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.830667406345057</v>
+        <v>8.989638585894799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.242486742526943</v>
+        <v>9.345490978198322</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>5.27203968316586</v>
+        <v>5.828570572875623</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.384729202361935</v>
+        <v>2.469119323182962</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.498159658384326</v>
+        <v>2.426331275098832</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.760151491892688</v>
+        <v>2.928848551294149</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9822180365722889</v>
+        <v>0.93423338222346</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4806627561323321</v>
+        <v>0.5483205303076961</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.336176622669584</v>
+        <v>6.236661377027424</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.864682926411664</v>
+        <v>7.132670648131552</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.783515633437347</v>
+        <v>4.410061846709634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.911704865121957</v>
+        <v>1.975411236849565</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>8.583464226029324</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.176579078213269</v>
+        <v>7.17657907821327</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>4.083555776958494</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.808899674296621</v>
+        <v>1.808899674296622</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.758886808772138</v>
+        <v>5.897018818122373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.754427749122659</v>
+        <v>4.81029140032883</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.692988002101173</v>
+        <v>1.923218498775217</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.8458202195911092</v>
+        <v>0.8324104102174007</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.16039411105365</v>
+        <v>11.18099522947776</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.525228173390627</v>
+        <v>9.568957990642042</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8.269524731510421</v>
+        <v>8.341140929612385</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.664504703123831</v>
+        <v>3.320631313508507</v>
       </c>
     </row>
     <row r="19">
@@ -912,7 +912,7 @@
         <v>5.900904991981952</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>4.798966970719336</v>
+        <v>4.798966970719335</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>5.992874224377523</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.823125323287275</v>
+        <v>4.054934167208332</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.249187737370372</v>
+        <v>-0.4386229268038035</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.533283667353516</v>
+        <v>1.379200147485098</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2407404385854145</v>
+        <v>-0.09745792848065195</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.780871759752796</v>
+        <v>7.861560694061663</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.852257492581452</v>
+        <v>7.96655412079008</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>23.50566791716622</v>
+        <v>23.18739796054438</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.024114012553152</v>
+        <v>4.729481602145928</v>
       </c>
     </row>
     <row r="22">
@@ -976,7 +976,7 @@
         <v>4.667629304631142</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.969120227749247</v>
+        <v>4.969120227749245</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>2.443439341581554</v>
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.697587964172262</v>
+        <v>3.701848085263878</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.845321688283264</v>
+        <v>3.872711510948637</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.595161955832044</v>
+        <v>1.535316872978061</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.7757113119586035</v>
+        <v>0.7976917698535309</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.702666519019351</v>
+        <v>5.683300721976296</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.017564086817937</v>
+        <v>6.086031334580558</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3.576139383315173</v>
+        <v>3.553630482366355</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.64370880686395</v>
+        <v>1.645622312232829</v>
       </c>
     </row>
     <row r="25">
